--- a/data/original/CHAPTER_4_VISUALS.xlsx
+++ b/data/original/CHAPTER_4_VISUALS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\project\storytelling-with-data-reproduced-by-tableau\data\original\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1F14E-279E-4E22-AB0A-4B017E6318D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="649"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="649" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIG0401" sheetId="8" r:id="rId1"/>
@@ -24,7 +30,7 @@
     <definedName name="OF_DOWN_TIME" localSheetId="7">#REF!</definedName>
     <definedName name="OF_DOWN_TIME">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -525,7 +531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1283,7 +1289,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1531,13 +1537,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1711,20 +1719,28 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Percent 2" xfId="4"/>
-    <cellStyle name="Percent 2 2" xfId="5"/>
-    <cellStyle name="Percent 3" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Percent 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Percent 3" xfId="6" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1744,10 +1760,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.500949016646892"/>
-          <c:y val="0.0350194552529183"/>
-          <c:w val="0.469370618056305"/>
-          <c:h val="0.914396887159533"/>
+          <c:x val="0.50094901664689195"/>
+          <c:y val="3.5019455252918302E-2"/>
+          <c:w val="0.46937061805630498"/>
+          <c:h val="0.91439688715953304"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1771,6 +1787,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1793,6 +1816,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1857,10 +1885,10 @@
                   <c:v>10.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.95</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.64</c:v>
@@ -1871,6 +1899,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6103-4919-9A63-7B184A802EAA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1891,6 +1924,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1964,14 +1998,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1991,10 +2025,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.320594925634296"/>
+          <c:x val="0.32059492563429598"/>
           <c:y val="0.155555555555556"/>
-          <c:w val="0.619576014536644"/>
-          <c:h val="0.728703703703704"/>
+          <c:w val="0.61957601453664402"/>
+          <c:h val="0.72870370370370396"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2023,8 +2057,20 @@
               </a:solidFill>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-81A9-40D7-A056-42BA5BA2681D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2047,6 +2093,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2078,23 +2129,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81A9-40D7-A056-42BA5BA2681D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2115,6 +2171,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2185,14 +2242,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2212,10 +2269,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.320594925634296"/>
+          <c:x val="0.32059492563429598"/>
           <c:y val="0.155555555555556"/>
-          <c:w val="0.619576014536644"/>
-          <c:h val="0.728703703703704"/>
+          <c:w val="0.61957601453664402"/>
+          <c:h val="0.72870370370370396"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2244,8 +2301,20 @@
               </a:solidFill>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-28DD-4000-8C1E-1AA37A7C8321}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2268,6 +2337,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2299,23 +2373,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28DD-4000-8C1E-1AA37A7C8321}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2336,6 +2415,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2406,14 +2486,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2433,10 +2513,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.500949016646892"/>
-          <c:y val="0.0350194552529183"/>
-          <c:w val="0.469370618056305"/>
-          <c:h val="0.914396887159533"/>
+          <c:x val="0.50094901664689195"/>
+          <c:y val="3.5019455252918302E-2"/>
+          <c:w val="0.46937061805630498"/>
+          <c:h val="0.91439688715953304"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2471,6 +2551,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2485,6 +2570,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2499,6 +2589,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2513,6 +2608,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2527,6 +2627,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2541,6 +2646,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2555,8 +2665,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9CA8-463E-BCB8-74AFDC8C8467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2579,6 +2701,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2643,10 +2770,10 @@
                   <c:v>10.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.95</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.64</c:v>
@@ -2657,6 +2784,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-9CA8-463E-BCB8-74AFDC8C8467}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2677,6 +2809,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2750,14 +2883,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2777,10 +2910,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.500949016646892"/>
-          <c:y val="0.0350194552529183"/>
-          <c:w val="0.469370618056305"/>
-          <c:h val="0.914396887159533"/>
+          <c:x val="0.50094901664689195"/>
+          <c:y val="3.5019455252918302E-2"/>
+          <c:w val="0.46937061805630498"/>
+          <c:h val="0.91439688715953304"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2818,6 +2951,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2832,6 +2970,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2846,6 +2989,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2860,6 +3008,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2874,6 +3027,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2888,6 +3046,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2902,6 +3065,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2918,6 +3086,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2932,6 +3105,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2946,8 +3124,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2970,6 +3160,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3034,10 +3229,10 @@
                   <c:v>10.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.95</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.64</c:v>
@@ -3048,6 +3243,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-E2C2-4D64-9A7F-E1C0EA62B0FE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3068,6 +3268,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3124,14 +3325,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3151,10 +3352,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0732056707197314"/>
-          <c:y val="0.0638381697043114"/>
-          <c:w val="0.884834038602318"/>
-          <c:h val="0.795741699245636"/>
+          <c:x val="7.32056707197314E-2"/>
+          <c:y val="6.3838169704311401E-2"/>
+          <c:w val="0.88483403860231802"/>
+          <c:h val="0.79574169924563598"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3228,45 +3429,50 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>139.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA8B-4228-A35B-F15168589067}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3336,45 +3542,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA8B-4228-A35B-F15168589067}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3384,7 +3595,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2107356008"/>
         <c:axId val="2107358984"/>
@@ -3448,14 +3658,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3475,10 +3685,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0732056707197314"/>
-          <c:y val="0.0638381697043114"/>
-          <c:w val="0.884834038602318"/>
-          <c:h val="0.795741699245636"/>
+          <c:x val="7.32056707197314E-2"/>
+          <c:y val="6.3838169704311401E-2"/>
+          <c:w val="0.88483403860231802"/>
+          <c:h val="0.79574169924563598"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3561,45 +3771,50 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>139.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF8B-410D-8C70-7A18F3CAF619}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3676,45 +3891,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF8B-410D-8C70-7A18F3CAF619}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3724,7 +3944,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2102177736"/>
         <c:axId val="2102250616"/>
@@ -3834,14 +4053,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3861,10 +4080,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0732056707197314"/>
-          <c:y val="0.0638381697043114"/>
-          <c:w val="0.884834038602318"/>
-          <c:h val="0.795741699245636"/>
+          <c:x val="7.32056707197314E-2"/>
+          <c:y val="6.3838169704311401E-2"/>
+          <c:w val="0.88483403860231802"/>
+          <c:h val="0.79574169924563598"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3945,45 +4164,50 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>139.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44DC-407F-BB93-65A79825BCBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4060,45 +4284,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44DC-407F-BB93-65A79825BCBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4108,7 +4337,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2107365896"/>
         <c:axId val="2094376872"/>
@@ -4218,14 +4446,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4245,10 +4473,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0732056707197314"/>
-          <c:y val="0.0638381697043114"/>
-          <c:w val="0.884834038602318"/>
-          <c:h val="0.795741699245636"/>
+          <c:x val="7.32056707197314E-2"/>
+          <c:y val="6.3838169704311401E-2"/>
+          <c:w val="0.88483403860231802"/>
+          <c:h val="0.79574169924563598"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4293,6 +4521,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4315,6 +4550,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4367,45 +4607,50 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>139.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D162-47ED-80BF-07C1169ED6F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4443,6 +4688,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4465,6 +4717,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4517,45 +4774,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D162-47ED-80BF-07C1169ED6F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4675,14 +4937,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4702,10 +4964,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0732056707197314"/>
-          <c:y val="0.0638381697043114"/>
-          <c:w val="0.884834038602318"/>
-          <c:h val="0.795741699245636"/>
+          <c:x val="7.32056707197314E-2"/>
+          <c:y val="6.3838169704311401E-2"/>
+          <c:w val="0.88483403860231802"/>
+          <c:h val="0.79574169924563598"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4755,6 +5017,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4762,6 +5029,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4769,6 +5041,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4776,6 +5053,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4783,6 +5065,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4790,6 +5077,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4797,36 +5089,90 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4849,6 +5195,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4901,45 +5252,50 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>139.0</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4982,6 +5338,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4989,6 +5350,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4996,6 +5362,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5003,6 +5374,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5010,6 +5386,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5017,6 +5398,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5024,36 +5410,90 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5076,6 +5516,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5128,45 +5573,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-69ED-49D3-B8E0-CF8C5D752DCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5286,14 +5736,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5313,10 +5763,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.320594925634296"/>
+          <c:x val="0.32059492563429598"/>
           <c:y val="0.155555555555556"/>
-          <c:w val="0.619576014536644"/>
-          <c:h val="0.728703703703704"/>
+          <c:w val="0.61957601453664402"/>
+          <c:h val="0.72870370370370396"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5345,8 +5795,20 @@
               </a:solidFill>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B99F-4F97-B95C-5B43C777790E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5369,6 +5831,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5400,23 +5867,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B99F-4F97-B95C-5B43C777790E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5437,6 +5909,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5507,7 +5980,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5530,7 +6003,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5573,7 +6052,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5639,7 +6124,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5828,20 +6319,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="135" name="Group 134"/>
+        <xdr:cNvPr id="135" name="Group 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5676900" y="1092200"/>
-          <a:ext cx="1397000" cy="1066800"/>
+          <a:off x="5387340" y="1094740"/>
+          <a:ext cx="1343660" cy="1066800"/>
           <a:chOff x="5664200" y="901700"/>
           <a:chExt cx="1397000" cy="1066800"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="2" name="Straight Connector 1"/>
+          <xdr:cNvPr id="2" name="Straight Connector 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5876,7 +6379,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="3" name="Straight Connector 2"/>
+          <xdr:cNvPr id="3" name="Straight Connector 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5911,7 +6420,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Connector 3"/>
+          <xdr:cNvPr id="4" name="Straight Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5946,7 +6461,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Straight Connector 4"/>
+          <xdr:cNvPr id="5" name="Straight Connector 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5981,7 +6502,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Straight Connector 5"/>
+          <xdr:cNvPr id="6" name="Straight Connector 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6016,7 +6543,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Straight Connector 6"/>
+          <xdr:cNvPr id="7" name="Straight Connector 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6067,20 +6600,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="136" name="Group 135"/>
+        <xdr:cNvPr id="136" name="Group 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8077200" y="1092200"/>
-          <a:ext cx="1397000" cy="1069848"/>
+          <a:off x="7658100" y="1094740"/>
+          <a:ext cx="1343660" cy="1069848"/>
           <a:chOff x="8064500" y="901700"/>
           <a:chExt cx="1397000" cy="1069848"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="Straight Connector 7"/>
+          <xdr:cNvPr id="8" name="Straight Connector 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6115,7 +6660,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="Straight Connector 8"/>
+          <xdr:cNvPr id="9" name="Straight Connector 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6150,7 +6701,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="Straight Connector 9"/>
+          <xdr:cNvPr id="10" name="Straight Connector 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6185,7 +6742,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Straight Connector 10"/>
+          <xdr:cNvPr id="11" name="Straight Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6220,7 +6783,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="Straight Connector 11"/>
+          <xdr:cNvPr id="12" name="Straight Connector 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6255,7 +6824,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Straight Connector 12"/>
+          <xdr:cNvPr id="13" name="Straight Connector 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6306,20 +6881,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="133" name="Group 132"/>
+        <xdr:cNvPr id="133" name="Group 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="876300" y="1092200"/>
-          <a:ext cx="1409700" cy="1066800"/>
+          <a:off x="845820" y="1094740"/>
+          <a:ext cx="1356360" cy="1066800"/>
           <a:chOff x="863600" y="901700"/>
           <a:chExt cx="1409700" cy="1066800"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="Straight Connector 13"/>
+          <xdr:cNvPr id="14" name="Straight Connector 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6354,7 +6941,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="Straight Connector 14"/>
+          <xdr:cNvPr id="15" name="Straight Connector 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6389,7 +6982,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="Straight Connector 15"/>
+          <xdr:cNvPr id="16" name="Straight Connector 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6424,7 +7023,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="Straight Connector 16"/>
+          <xdr:cNvPr id="17" name="Straight Connector 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6459,7 +7064,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="Straight Connector 17"/>
+          <xdr:cNvPr id="18" name="Straight Connector 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6494,7 +7105,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="Straight Connector 18"/>
+          <xdr:cNvPr id="19" name="Straight Connector 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6529,7 +7146,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Straight Connector 19"/>
+          <xdr:cNvPr id="20" name="Straight Connector 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6564,7 +7187,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="Straight Connector 20"/>
+          <xdr:cNvPr id="21" name="Straight Connector 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6599,7 +7228,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Straight Connector 21"/>
+          <xdr:cNvPr id="22" name="Straight Connector 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6634,7 +7269,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="Straight Connector 22"/>
+          <xdr:cNvPr id="23" name="Straight Connector 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6669,7 +7310,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="Straight Connector 23"/>
+          <xdr:cNvPr id="24" name="Straight Connector 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6704,7 +7351,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="Straight Connector 24"/>
+          <xdr:cNvPr id="25" name="Straight Connector 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6755,20 +7408,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="134" name="Group 133"/>
+        <xdr:cNvPr id="134" name="Group 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3263900" y="1092200"/>
-          <a:ext cx="1409700" cy="1066800"/>
+          <a:off x="3103880" y="1094740"/>
+          <a:ext cx="1356360" cy="1066800"/>
           <a:chOff x="3263900" y="901700"/>
           <a:chExt cx="1409700" cy="1066800"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="Straight Connector 25"/>
+          <xdr:cNvPr id="26" name="Straight Connector 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6803,7 +7468,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="Straight Connector 26"/>
+          <xdr:cNvPr id="27" name="Straight Connector 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6838,7 +7509,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="Straight Connector 27"/>
+          <xdr:cNvPr id="28" name="Straight Connector 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6873,7 +7550,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="Straight Connector 28"/>
+          <xdr:cNvPr id="29" name="Straight Connector 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6908,7 +7591,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="Straight Connector 29"/>
+          <xdr:cNvPr id="30" name="Straight Connector 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6943,7 +7632,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="Straight Connector 30"/>
+          <xdr:cNvPr id="31" name="Straight Connector 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6978,7 +7673,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="Straight Connector 31"/>
+          <xdr:cNvPr id="32" name="Straight Connector 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7013,7 +7714,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="Straight Connector 32"/>
+          <xdr:cNvPr id="33" name="Straight Connector 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7048,7 +7755,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="Straight Connector 33"/>
+          <xdr:cNvPr id="34" name="Straight Connector 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7083,7 +7796,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="Straight Connector 34"/>
+          <xdr:cNvPr id="35" name="Straight Connector 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7118,7 +7837,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="36" name="Straight Connector 35"/>
+          <xdr:cNvPr id="36" name="Straight Connector 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7153,7 +7878,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Rectangle 36"/>
+          <xdr:cNvPr id="37" name="Rectangle 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7216,20 +7947,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="137" name="Group 136"/>
+        <xdr:cNvPr id="137" name="Group 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5664200" y="3048000"/>
-          <a:ext cx="1409700" cy="1066800"/>
+          <a:off x="5374640" y="3111500"/>
+          <a:ext cx="1356360" cy="1066800"/>
           <a:chOff x="5664200" y="2882900"/>
           <a:chExt cx="1409700" cy="1066800"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="Straight Connector 37"/>
+          <xdr:cNvPr id="38" name="Straight Connector 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7264,7 +8007,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="Straight Connector 38"/>
+          <xdr:cNvPr id="39" name="Straight Connector 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7299,7 +8048,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="40" name="Straight Connector 39"/>
+          <xdr:cNvPr id="40" name="Straight Connector 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7334,7 +8089,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="Straight Connector 40"/>
+          <xdr:cNvPr id="41" name="Straight Connector 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7369,7 +8130,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="42" name="Straight Connector 41"/>
+          <xdr:cNvPr id="42" name="Straight Connector 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7404,7 +8171,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="Straight Connector 42"/>
+          <xdr:cNvPr id="43" name="Straight Connector 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7439,7 +8212,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="44" name="Straight Connector 43"/>
+          <xdr:cNvPr id="44" name="Straight Connector 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7474,7 +8253,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="45" name="Straight Connector 44"/>
+          <xdr:cNvPr id="45" name="Straight Connector 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7509,7 +8294,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="Straight Connector 45"/>
+          <xdr:cNvPr id="46" name="Straight Connector 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7544,7 +8335,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="47" name="Straight Connector 46"/>
+          <xdr:cNvPr id="47" name="Straight Connector 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7579,7 +8376,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="Straight Connector 47"/>
+          <xdr:cNvPr id="48" name="Straight Connector 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7614,7 +8417,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="49" name="Straight Connector 48"/>
+          <xdr:cNvPr id="49" name="Straight Connector 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7649,7 +8458,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="50" name="Straight Connector 49"/>
+          <xdr:cNvPr id="50" name="Straight Connector 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7700,20 +8515,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="138" name="Group 137"/>
+        <xdr:cNvPr id="138" name="Group 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8064500" y="3048000"/>
-          <a:ext cx="1409700" cy="1130300"/>
+          <a:off x="7645400" y="3111500"/>
+          <a:ext cx="1356360" cy="1130300"/>
           <a:chOff x="8064500" y="2882900"/>
           <a:chExt cx="1409700" cy="1130300"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="Straight Connector 50"/>
+          <xdr:cNvPr id="51" name="Straight Connector 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7748,7 +8575,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="Straight Connector 51"/>
+          <xdr:cNvPr id="52" name="Straight Connector 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7783,7 +8616,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="53" name="Straight Connector 52"/>
+          <xdr:cNvPr id="53" name="Straight Connector 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7818,7 +8657,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="54" name="Straight Connector 53"/>
+          <xdr:cNvPr id="54" name="Straight Connector 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7853,7 +8698,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="55" name="Straight Connector 54"/>
+          <xdr:cNvPr id="55" name="Straight Connector 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7888,7 +8739,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Straight Connector 55"/>
+          <xdr:cNvPr id="56" name="Straight Connector 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7923,7 +8780,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="57" name="Straight Connector 56"/>
+          <xdr:cNvPr id="57" name="Straight Connector 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7958,7 +8821,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="Straight Connector 57"/>
+          <xdr:cNvPr id="58" name="Straight Connector 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7993,7 +8862,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="59" name="Straight Connector 58"/>
+          <xdr:cNvPr id="59" name="Straight Connector 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8028,7 +8903,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="60" name="Straight Connector 59"/>
+          <xdr:cNvPr id="60" name="Straight Connector 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8063,7 +8944,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="61" name="Straight Connector 60"/>
+          <xdr:cNvPr id="61" name="Straight Connector 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8098,7 +8985,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="62" name="Straight Connector 61"/>
+          <xdr:cNvPr id="62" name="Straight Connector 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8133,7 +9026,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="Rectangle 62"/>
+          <xdr:cNvPr id="63" name="Rectangle 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8196,20 +9095,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="129" name="Group 128"/>
+        <xdr:cNvPr id="129" name="Group 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="850900" y="3162300"/>
-          <a:ext cx="1361440" cy="866140"/>
+          <a:off x="820420" y="3225800"/>
+          <a:ext cx="1308100" cy="866140"/>
           <a:chOff x="876300" y="2971800"/>
           <a:chExt cx="1361440" cy="866140"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="Oval 63"/>
+          <xdr:cNvPr id="64" name="Oval 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8256,7 +9167,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Oval 64"/>
+          <xdr:cNvPr id="65" name="Oval 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8303,7 +9220,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="Oval 65"/>
+          <xdr:cNvPr id="66" name="Oval 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8350,7 +9273,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="Oval 66"/>
+          <xdr:cNvPr id="67" name="Oval 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8397,7 +9326,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="Oval 67"/>
+          <xdr:cNvPr id="68" name="Oval 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8444,7 +9379,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="Oval 68"/>
+          <xdr:cNvPr id="69" name="Oval 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8491,7 +9432,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="Oval 69"/>
+          <xdr:cNvPr id="70" name="Oval 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8538,7 +9485,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="Oval 70"/>
+          <xdr:cNvPr id="71" name="Oval 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8585,7 +9538,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="Oval 71"/>
+          <xdr:cNvPr id="72" name="Oval 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8632,7 +9591,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="Oval 72"/>
+          <xdr:cNvPr id="73" name="Oval 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8679,7 +9644,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="Oval 73"/>
+          <xdr:cNvPr id="74" name="Oval 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8726,7 +9697,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="Oval 74"/>
+          <xdr:cNvPr id="75" name="Oval 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8773,7 +9750,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="Oval 75"/>
+          <xdr:cNvPr id="76" name="Oval 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8820,7 +9803,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="Oval 76"/>
+          <xdr:cNvPr id="77" name="Oval 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8867,7 +9856,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="Oval 77"/>
+          <xdr:cNvPr id="78" name="Oval 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8914,7 +9909,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="Oval 78"/>
+          <xdr:cNvPr id="79" name="Oval 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8961,7 +9962,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="Oval 79"/>
+          <xdr:cNvPr id="80" name="Oval 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9008,7 +10015,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="Oval 80"/>
+          <xdr:cNvPr id="81" name="Oval 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9071,7 +10084,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="TextBox 81"/>
+        <xdr:cNvPr id="82" name="TextBox 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9156,20 +10175,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="130" name="Group 129"/>
+        <xdr:cNvPr id="130" name="Group 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="850900" y="5207000"/>
-          <a:ext cx="1361440" cy="802640"/>
+          <a:off x="820420" y="5331460"/>
+          <a:ext cx="1308100" cy="802640"/>
           <a:chOff x="876300" y="5016500"/>
           <a:chExt cx="1361440" cy="802640"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="Oval 82"/>
+          <xdr:cNvPr id="83" name="Oval 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9216,7 +10247,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="Oval 83"/>
+          <xdr:cNvPr id="84" name="Oval 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9263,7 +10300,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Oval 84"/>
+          <xdr:cNvPr id="85" name="Oval 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9310,7 +10353,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Oval 85"/>
+          <xdr:cNvPr id="86" name="Oval 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9357,7 +10406,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Oval 86"/>
+          <xdr:cNvPr id="87" name="Oval 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9404,7 +10459,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Oval 87"/>
+          <xdr:cNvPr id="88" name="Oval 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9451,7 +10512,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="Oval 88"/>
+          <xdr:cNvPr id="89" name="Oval 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9498,7 +10565,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="Oval 89"/>
+          <xdr:cNvPr id="90" name="Oval 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9545,7 +10618,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="Oval 90"/>
+          <xdr:cNvPr id="91" name="Oval 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9592,7 +10671,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="Oval 91"/>
+          <xdr:cNvPr id="92" name="Oval 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9636,7 +10721,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="Oval 92"/>
+          <xdr:cNvPr id="93" name="Oval 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9683,7 +10774,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="Oval 93"/>
+          <xdr:cNvPr id="94" name="Oval 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9730,7 +10827,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="Oval 94"/>
+          <xdr:cNvPr id="95" name="Oval 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9777,7 +10880,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Oval 95"/>
+          <xdr:cNvPr id="96" name="Oval 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9824,7 +10933,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Oval 96"/>
+          <xdr:cNvPr id="97" name="Oval 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9871,7 +10986,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="Oval 97"/>
+          <xdr:cNvPr id="98" name="Oval 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9918,7 +11039,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="Oval 98"/>
+          <xdr:cNvPr id="99" name="Oval 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9965,7 +11092,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="Oval 99"/>
+          <xdr:cNvPr id="100" name="Oval 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10028,20 +11161,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="131" name="Group 130"/>
+        <xdr:cNvPr id="131" name="Group 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3251200" y="5207000"/>
-          <a:ext cx="1361440" cy="802640"/>
+          <a:off x="3091180" y="5331460"/>
+          <a:ext cx="1308100" cy="802640"/>
           <a:chOff x="3276600" y="5016500"/>
           <a:chExt cx="1361440" cy="802640"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="Oval 100"/>
+          <xdr:cNvPr id="101" name="Oval 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10088,7 +11233,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Oval 101"/>
+          <xdr:cNvPr id="102" name="Oval 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10135,7 +11286,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="Oval 102"/>
+          <xdr:cNvPr id="103" name="Oval 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10182,7 +11339,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="Oval 103"/>
+          <xdr:cNvPr id="104" name="Oval 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10228,7 +11391,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="Oval 104"/>
+          <xdr:cNvPr id="105" name="Oval 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10275,7 +11444,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="Oval 105"/>
+          <xdr:cNvPr id="106" name="Oval 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10322,7 +11497,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="Oval 106"/>
+          <xdr:cNvPr id="107" name="Oval 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10369,7 +11550,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="Oval 107"/>
+          <xdr:cNvPr id="108" name="Oval 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10416,7 +11603,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="Oval 108"/>
+          <xdr:cNvPr id="109" name="Oval 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10463,7 +11656,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="Oval 109"/>
+          <xdr:cNvPr id="110" name="Oval 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10510,7 +11709,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="Oval 110"/>
+          <xdr:cNvPr id="111" name="Oval 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10557,7 +11762,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="Oval 111"/>
+          <xdr:cNvPr id="112" name="Oval 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10604,7 +11815,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="Oval 112"/>
+          <xdr:cNvPr id="113" name="Oval 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10651,7 +11868,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="Oval 113"/>
+          <xdr:cNvPr id="114" name="Oval 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10698,7 +11921,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="Oval 114"/>
+          <xdr:cNvPr id="115" name="Oval 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10745,7 +11974,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="Oval 115"/>
+          <xdr:cNvPr id="116" name="Oval 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10792,7 +12027,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="Oval 116"/>
+          <xdr:cNvPr id="117" name="Oval 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10839,7 +12080,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="Oval 117"/>
+          <xdr:cNvPr id="118" name="Oval 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10902,20 +12149,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="132" name="Group 131"/>
+        <xdr:cNvPr id="132" name="Group 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5664200" y="5562600"/>
-          <a:ext cx="1361440" cy="447040"/>
+          <a:off x="5374640" y="5687060"/>
+          <a:ext cx="1308100" cy="447040"/>
           <a:chOff x="5676900" y="5372100"/>
           <a:chExt cx="1361440" cy="447040"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="Oval 118"/>
+          <xdr:cNvPr id="119" name="Oval 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10962,7 +12221,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="Oval 119"/>
+          <xdr:cNvPr id="120" name="Oval 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11009,7 +12274,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="121" name="Oval 120"/>
+          <xdr:cNvPr id="121" name="Oval 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11056,7 +12327,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Oval 121"/>
+          <xdr:cNvPr id="122" name="Oval 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11103,7 +12380,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Oval 122"/>
+          <xdr:cNvPr id="123" name="Oval 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11150,7 +12433,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Oval 123"/>
+          <xdr:cNvPr id="124" name="Oval 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11213,7 +12502,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="Curved Connector 124"/>
+        <xdr:cNvPr id="125" name="Curved Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11274,7 +12569,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11392,7 +12693,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11488,7 +12795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11550,7 +12863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12036,7 +13355,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12142,7 +13467,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12270,7 +13601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12391,7 +13728,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12486,7 +13829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12642,7 +13991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12741,7 +14096,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12773,7 +14134,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12805,7 +14172,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12837,7 +14210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12947,7 +14326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13031,7 +14416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13279,7 +14670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13362,7 +14759,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13394,7 +14797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13480,7 +14889,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13512,7 +14927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13601,7 +15022,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13633,13 +15060,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5854700" y="18300700"/>
-          <a:ext cx="1295400" cy="1346200"/>
+          <a:off x="5532120" y="18486120"/>
+          <a:ext cx="1203960" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13722,7 +15155,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13747,20 +15186,26 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>128</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5854700" y="23088600"/>
-          <a:ext cx="1320800" cy="1346200"/>
+          <a:off x="5532120" y="23263860"/>
+          <a:ext cx="1684020" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13843,7 +15288,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13880,7 +15331,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13907,7 +15364,13 @@
     <xdr:ext cx="1252278" cy="369332"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13960,7 +15423,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13987,7 +15456,13 @@
     <xdr:ext cx="1252278" cy="369332"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14040,7 +15515,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14067,7 +15548,13 @@
     <xdr:ext cx="1252278" cy="369332"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14429,39 +15916,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>141</v>
       </c>
@@ -14475,7 +15962,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -14487,7 +15974,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -14499,7 +15986,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -14511,7 +15998,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -14523,7 +16010,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -14535,7 +16022,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -14547,7 +16034,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -14559,7 +16046,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -14571,7 +16058,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -14583,7 +16070,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14595,7 +16082,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -14607,7 +16094,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -14619,7 +16106,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -14631,7 +16118,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -14643,7 +16130,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -14655,7 +16142,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14667,7 +16154,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -14679,7 +16166,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -14691,7 +16178,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="24" spans="2:11" s="14" customFormat="1"/>
+    <row r="24" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14705,7 +16192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14713,25 +16200,25 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="83"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="83"/>
+    <col min="14" max="14" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1">
+    <row r="3" spans="1:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -14739,7 +16226,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="121"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>107</v>
       </c>
@@ -14758,7 +16245,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -14772,7 +16259,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -14786,7 +16273,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -14800,7 +16287,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -14814,7 +16301,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -14828,7 +16315,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -14842,7 +16329,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -14856,7 +16343,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -14870,7 +16357,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -14884,7 +16371,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14898,7 +16385,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -14912,7 +16399,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -14926,7 +16413,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -14940,7 +16427,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -14954,7 +16441,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -14968,7 +16455,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14982,7 +16469,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -14996,7 +16483,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:14" ht="16" thickBot="1">
+    <row r="22" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -15010,7 +16497,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="24" spans="2:14" s="14" customFormat="1">
+    <row r="24" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H24" s="104"/>
     </row>
   </sheetData>
@@ -15026,7 +16513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15034,32 +16521,32 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" customWidth="1"/>
+    <col min="6" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" customWidth="1"/>
+    <col min="9" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="4.7265625" customWidth="1"/>
+    <col min="12" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1"/>
-    <row r="4" spans="1:14">
+    <row r="3" spans="1:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>111</v>
       </c>
@@ -15076,7 +16563,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -15091,7 +16578,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -15106,7 +16593,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -15121,7 +16608,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -15136,7 +16623,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -15151,7 +16638,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -15166,7 +16653,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -15181,7 +16668,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -15196,30 +16683,30 @@
       <c r="M12" s="9"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" s="116" customFormat="1" ht="18">
+    <row r="13" spans="1:14" s="116" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B13" s="117"/>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="122"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="126"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="125" t="s">
+      <c r="I13" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="125"/>
+      <c r="J13" s="126"/>
       <c r="K13" s="122"/>
-      <c r="L13" s="125" t="s">
+      <c r="L13" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="M13" s="125"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="118"/>
     </row>
-    <row r="14" spans="1:14" s="116" customFormat="1" ht="18">
+    <row r="14" spans="1:14" s="116" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B14" s="117"/>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
@@ -15234,7 +16721,7 @@
       <c r="M14" s="122"/>
       <c r="N14" s="118"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="123"/>
       <c r="D15" s="123"/>
@@ -15249,7 +16736,7 @@
       <c r="M15" s="123"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="123"/>
       <c r="D16" s="123"/>
@@ -15264,7 +16751,7 @@
       <c r="M16" s="123"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="123"/>
       <c r="D17" s="123"/>
@@ -15279,7 +16766,7 @@
       <c r="M17" s="123"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="123"/>
       <c r="D18" s="123"/>
@@ -15294,7 +16781,7 @@
       <c r="M18" s="123"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="123"/>
       <c r="D19" s="123"/>
@@ -15309,7 +16796,7 @@
       <c r="M19" s="123"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="123"/>
       <c r="D20" s="123"/>
@@ -15324,7 +16811,7 @@
       <c r="M20" s="123"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="123"/>
       <c r="D21" s="123"/>
@@ -15339,7 +16826,7 @@
       <c r="M21" s="123"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
@@ -15354,30 +16841,30 @@
       <c r="M22" s="123"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:14" s="116" customFormat="1" ht="18">
+    <row r="23" spans="2:14" s="116" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B23" s="117"/>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="125"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="122"/>
-      <c r="F23" s="125" t="s">
+      <c r="F23" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="122"/>
-      <c r="I23" s="125" t="s">
+      <c r="I23" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="126"/>
       <c r="K23" s="122"/>
-      <c r="L23" s="125" t="s">
+      <c r="L23" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="125"/>
+      <c r="M23" s="126"/>
       <c r="N23" s="118"/>
     </row>
-    <row r="24" spans="2:14" ht="18">
+    <row r="24" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
@@ -15392,7 +16879,7 @@
       <c r="M24" s="122"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
@@ -15407,7 +16894,7 @@
       <c r="M25" s="123"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="123"/>
       <c r="D26" s="123"/>
@@ -15422,7 +16909,7 @@
       <c r="M26" s="123"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="123"/>
       <c r="D27" s="123"/>
@@ -15437,7 +16924,7 @@
       <c r="M27" s="123"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="123"/>
       <c r="D28" s="123"/>
@@ -15452,7 +16939,7 @@
       <c r="M28" s="123"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="123"/>
       <c r="D29" s="123"/>
@@ -15467,7 +16954,7 @@
       <c r="M29" s="123"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="123"/>
       <c r="D30" s="123"/>
@@ -15482,7 +16969,7 @@
       <c r="M30" s="123"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="123"/>
       <c r="D31" s="123"/>
@@ -15497,7 +16984,7 @@
       <c r="M31" s="123"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="123"/>
       <c r="D32" s="123"/>
@@ -15512,30 +16999,30 @@
       <c r="M32" s="123"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="2:14" s="116" customFormat="1" ht="18">
+    <row r="33" spans="2:14" s="116" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B33" s="117"/>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="125"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="122"/>
-      <c r="F33" s="125" t="s">
+      <c r="F33" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="125"/>
+      <c r="G33" s="126"/>
       <c r="H33" s="122"/>
-      <c r="I33" s="125" t="s">
+      <c r="I33" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="J33" s="125"/>
+      <c r="J33" s="126"/>
       <c r="K33" s="122"/>
-      <c r="L33" s="125" t="s">
+      <c r="L33" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="M33" s="125"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="118"/>
     </row>
-    <row r="34" spans="2:14" ht="16" thickBot="1">
+    <row r="34" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="124"/>
       <c r="D34" s="124"/>
@@ -15550,7 +17037,7 @@
       <c r="M34" s="124"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="36" spans="2:14" s="14" customFormat="1"/>
+    <row r="36" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C33:D33"/>
@@ -15578,7 +17065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15586,32 +17073,32 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="80" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" customWidth="1"/>
+    <col min="9" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="14" width="2.7265625" customWidth="1"/>
+    <col min="15" max="15" width="3.81640625" style="80" customWidth="1"/>
+    <col min="16" max="16" width="2.7265625" customWidth="1"/>
     <col min="17" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" customWidth="1"/>
+    <col min="23" max="23" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16" thickBot="1"/>
-    <row r="4" spans="1:23">
+    <row r="3" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>118</v>
       </c>
@@ -15638,7 +17125,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -15661,7 +17148,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:23" ht="23">
+    <row r="6" spans="1:23" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="19" t="s">
         <v>112</v>
@@ -15688,7 +17175,7 @@
       <c r="V6" s="9"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -15711,7 +17198,7 @@
       <c r="V7" s="9"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -15734,7 +17221,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -15757,7 +17244,7 @@
       <c r="V9" s="9"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -15780,7 +17267,7 @@
       <c r="V10" s="9"/>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -15803,7 +17290,7 @@
       <c r="V11" s="9"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -15826,7 +17313,7 @@
       <c r="V12" s="9"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -15849,7 +17336,7 @@
       <c r="V13" s="9"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -15872,7 +17359,7 @@
       <c r="V14" s="9"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -15895,7 +17382,7 @@
       <c r="V15" s="9"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -15918,7 +17405,7 @@
       <c r="V16" s="9"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -15941,7 +17428,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -15964,7 +17451,7 @@
       <c r="V18" s="9"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="2:23" ht="23">
+    <row r="19" spans="2:23" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="19" t="s">
         <v>114</v>
@@ -15991,7 +17478,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -16014,7 +17501,7 @@
       <c r="V20" s="9"/>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -16037,7 +17524,7 @@
       <c r="V21" s="9"/>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="2:23" ht="16" thickBot="1">
+    <row r="22" spans="2:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -16060,7 +17547,7 @@
       <c r="V22" s="12"/>
       <c r="W22" s="13"/>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -16083,7 +17570,7 @@
       <c r="V23" s="80"/>
       <c r="W23" s="80"/>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -16106,7 +17593,7 @@
       <c r="V24" s="80"/>
       <c r="W24" s="80"/>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -16121,7 +17608,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -16136,7 +17623,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -16151,7 +17638,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -16166,7 +17653,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -16181,7 +17668,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -16196,7 +17683,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -16211,7 +17698,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="2:23" ht="23">
+    <row r="32" spans="2:23" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="19" t="s">
         <v>110</v>
@@ -16230,7 +17717,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -16245,7 +17732,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -16260,7 +17747,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -16275,7 +17762,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -16290,7 +17777,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -16305,7 +17792,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -16320,7 +17807,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -16335,7 +17822,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -16350,7 +17837,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -16365,7 +17852,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -16380,7 +17867,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -16395,7 +17882,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -16410,7 +17897,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -16425,7 +17912,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -16440,7 +17927,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -16455,7 +17942,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="2:14" ht="23">
+    <row r="48" spans="2:14" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
       <c r="C48" s="19" t="s">
         <v>117</v>
@@ -16474,7 +17961,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -16489,7 +17976,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -16504,7 +17991,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -16519,7 +18006,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -16534,7 +18021,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -16549,7 +18036,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -16564,7 +18051,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -16579,7 +18066,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -16594,7 +18081,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -16609,7 +18096,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -16624,7 +18111,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -16639,7 +18126,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="2:15" ht="16" thickBot="1">
+    <row r="60" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -16654,19 +18141,19 @@
       <c r="M60" s="12"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="62" spans="2:15" s="14" customFormat="1">
+    <row r="62" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O62" s="104"/>
     </row>
-    <row r="63" spans="2:15" s="18" customFormat="1">
+    <row r="63" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O63" s="83"/>
     </row>
-    <row r="64" spans="2:15" s="18" customFormat="1">
+    <row r="64" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O64" s="83"/>
     </row>
-    <row r="65" spans="15:15" s="18" customFormat="1">
+    <row r="65" spans="15:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O65" s="83"/>
     </row>
-    <row r="66" spans="15:15" s="18" customFormat="1">
+    <row r="66" spans="15:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O66" s="83"/>
     </row>
   </sheetData>
@@ -16682,34 +18169,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -16718,12 +18205,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -16731,7 +18218,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -16739,7 +18226,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -16747,7 +18234,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -16755,7 +18242,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -16763,7 +18250,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>119</v>
       </c>
@@ -16771,7 +18258,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -16779,7 +18266,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -16787,7 +18274,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -16795,7 +18282,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -16803,10 +18290,10 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -16820,10 +18307,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
@@ -16837,7 +18324,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -16849,7 +18336,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="2:11" ht="23">
+    <row r="21" spans="2:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="25" t="s">
         <v>29</v>
@@ -16863,7 +18350,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -16877,7 +18364,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -16889,7 +18376,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -16901,7 +18388,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -16913,7 +18400,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -16925,7 +18412,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -16937,7 +18424,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -16949,7 +18436,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -16961,7 +18448,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -16973,7 +18460,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -16985,7 +18472,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -16997,7 +18484,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -17009,7 +18496,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -17021,7 +18508,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -17033,7 +18520,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -17045,7 +18532,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -17057,7 +18544,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -17069,7 +18556,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="2:11" ht="16" thickBot="1">
+    <row r="39" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -17081,8 +18568,8 @@
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="41" spans="2:11" ht="16" thickBot="1"/>
-    <row r="42" spans="2:11" ht="16" thickBot="1">
+    <row r="41" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>30</v>
       </c>
@@ -17096,7 +18583,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -17108,7 +18595,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="23"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -17120,7 +18607,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -17132,7 +18619,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -17144,7 +18631,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -17156,7 +18643,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -17168,7 +18655,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="2:11" ht="23">
+    <row r="49" spans="2:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
       <c r="C49" s="25" t="s">
         <v>29</v>
@@ -17182,7 +18669,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -17196,7 +18683,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -17208,7 +18695,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -17220,7 +18707,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -17232,7 +18719,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -17244,7 +18731,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -17256,7 +18743,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -17268,7 +18755,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -17280,7 +18767,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -17292,7 +18779,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -17304,7 +18791,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -17316,7 +18803,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -17328,7 +18815,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -17340,7 +18827,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -17352,7 +18839,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -17364,7 +18851,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -17376,7 +18863,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -17388,7 +18875,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="2:11" ht="16" thickBot="1">
+    <row r="67" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -17400,9 +18887,9 @@
       <c r="J67" s="12"/>
       <c r="K67" s="13"/>
     </row>
-    <row r="68" spans="2:11" s="18" customFormat="1"/>
-    <row r="69" spans="2:11" s="18" customFormat="1" ht="16" thickBot="1"/>
-    <row r="70" spans="2:11" s="18" customFormat="1">
+    <row r="68" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:11" s="18" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>57</v>
       </c>
@@ -17416,7 +18903,7 @@
       <c r="J70" s="6"/>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" spans="2:11" s="18" customFormat="1">
+    <row r="71" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -17428,7 +18915,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="2:11" s="18" customFormat="1">
+    <row r="72" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -17440,7 +18927,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="2:11" s="18" customFormat="1">
+    <row r="73" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -17452,7 +18939,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="2:11" s="18" customFormat="1">
+    <row r="74" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -17464,7 +18951,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="2:11" s="18" customFormat="1">
+    <row r="75" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -17476,7 +18963,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="2:11" ht="23">
+    <row r="76" spans="2:11" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B76" s="8"/>
       <c r="C76" s="19" t="s">
         <v>29</v>
@@ -17490,7 +18977,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -17504,7 +18991,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -17516,7 +19003,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -17528,7 +19015,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -17540,7 +19027,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -17552,7 +19039,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -17564,7 +19051,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -17576,7 +19063,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -17588,7 +19075,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -17600,7 +19087,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -17612,7 +19099,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -17624,7 +19111,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -17636,7 +19123,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -17648,7 +19135,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -17660,7 +19147,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -17672,7 +19159,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -17684,7 +19171,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -17696,7 +19183,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="2:11" ht="16" thickBot="1">
+    <row r="94" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -17708,7 +19195,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="13"/>
     </row>
-    <row r="95" spans="2:11" s="14" customFormat="1"/>
+    <row r="95" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17722,40 +19209,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="36" customWidth="1"/>
-    <col min="4" max="8" width="7.85546875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11" max="15" width="8.28515625" style="36" customWidth="1"/>
-    <col min="16" max="18" width="7.85546875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" style="36" customWidth="1"/>
+    <col min="4" max="8" width="7.81640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" style="36" customWidth="1"/>
+    <col min="11" max="15" width="8.26953125" style="36" customWidth="1"/>
+    <col min="16" max="18" width="7.81640625" style="36" customWidth="1"/>
     <col min="19" max="20" width="8" style="36" customWidth="1"/>
-    <col min="21" max="24" width="7.85546875" style="36" customWidth="1"/>
-    <col min="25" max="16384" width="10.7109375" style="36"/>
+    <col min="21" max="24" width="7.81640625" style="36" customWidth="1"/>
+    <col min="25" max="16384" width="10.7265625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:19" customFormat="1">
+    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -17773,8 +19260,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:19" s="28" customFormat="1" ht="12"/>
-    <row r="6" spans="1:19" s="28" customFormat="1">
+    <row r="5" spans="1:19" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:19" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="29" t="s">
         <v>31</v>
       </c>
@@ -17815,7 +19302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="28" customFormat="1">
+    <row r="7" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31"/>
       <c r="D7" s="32" t="s">
         <v>44</v>
@@ -17854,7 +19341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="28" customFormat="1">
+    <row r="8" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="33" t="s">
         <v>55</v>
       </c>
@@ -17895,7 +19382,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="28" customFormat="1">
+    <row r="9" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="33" t="s">
         <v>56</v>
       </c>
@@ -17936,7 +19423,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="28" customFormat="1">
+    <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="33"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -17951,7 +19438,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:19" s="28" customFormat="1">
+    <row r="11" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="33"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -17966,7 +19453,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:19" customFormat="1">
+    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>26</v>
       </c>
@@ -17988,7 +19475,7 @@
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1">
+    <row r="13" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
@@ -18004,7 +19491,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
@@ -18017,7 +19504,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="43"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -18028,7 +19515,7 @@
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="43"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -18039,7 +19526,7 @@
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="43"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -18050,7 +19537,7 @@
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -18061,7 +19548,7 @@
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="43"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -18072,7 +19559,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="43"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -18083,7 +19570,7 @@
       <c r="I20" s="39"/>
       <c r="J20" s="40"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="43"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -18094,7 +19581,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="43"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -18105,7 +19592,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="43"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -18116,7 +19603,7 @@
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="43"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -18127,7 +19614,7 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -18138,7 +19625,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -18149,7 +19636,7 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -18160,7 +19647,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
@@ -18171,7 +19658,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="43"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
@@ -18182,7 +19669,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="43"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -18193,7 +19680,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="43"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
@@ -18204,7 +19691,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="43"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -18215,7 +19702,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="43"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
@@ -18226,7 +19713,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="43"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -18237,7 +19724,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="43"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
@@ -18248,7 +19735,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:12" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="36" spans="1:12" s="37" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="45"/>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
@@ -18259,7 +19746,7 @@
       <c r="I36" s="41"/>
       <c r="J36" s="42"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="48"/>
       <c r="C37" s="47"/>
@@ -18273,10 +19760,10 @@
       <c r="K37" s="31"/>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="38" spans="1:12" s="37" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49"/>
     </row>
-    <row r="39" spans="1:12" s="37" customFormat="1">
+    <row r="39" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>59</v>
       </c>
@@ -18289,7 +19776,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:12" s="46" customFormat="1">
+    <row r="40" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="43"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -18300,7 +19787,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:12" s="46" customFormat="1">
+    <row r="41" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="43"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -18311,7 +19798,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:12" s="46" customFormat="1">
+    <row r="42" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
@@ -18322,7 +19809,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="43"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -18333,7 +19820,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="43"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -18344,7 +19831,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="40"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="43"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -18355,7 +19842,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="40"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="43"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -18366,7 +19853,7 @@
       <c r="I46" s="39"/>
       <c r="J46" s="40"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="43"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -18377,7 +19864,7 @@
       <c r="I47" s="39"/>
       <c r="J47" s="40"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="43"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -18388,7 +19875,7 @@
       <c r="I48" s="39"/>
       <c r="J48" s="40"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="43"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
@@ -18399,7 +19886,7 @@
       <c r="I49" s="39"/>
       <c r="J49" s="40"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="43"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
@@ -18410,7 +19897,7 @@
       <c r="I50" s="39"/>
       <c r="J50" s="40"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="43"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
@@ -18421,7 +19908,7 @@
       <c r="I51" s="39"/>
       <c r="J51" s="40"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="43"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
@@ -18432,7 +19919,7 @@
       <c r="I52" s="39"/>
       <c r="J52" s="40"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="43"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
@@ -18443,7 +19930,7 @@
       <c r="I53" s="39"/>
       <c r="J53" s="40"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="43"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
@@ -18454,7 +19941,7 @@
       <c r="I54" s="39"/>
       <c r="J54" s="40"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="43"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
@@ -18465,7 +19952,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="40"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="43"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
@@ -18476,7 +19963,7 @@
       <c r="I56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
@@ -18487,7 +19974,7 @@
       <c r="I57" s="39"/>
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="43"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
@@ -18498,7 +19985,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="43"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
@@ -18509,7 +19996,7 @@
       <c r="I59" s="39"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="43"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
@@ -18520,7 +20007,7 @@
       <c r="I60" s="39"/>
       <c r="J60" s="40"/>
     </row>
-    <row r="61" spans="2:10" ht="16" thickBot="1">
+    <row r="61" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="45"/>
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
@@ -18531,8 +20018,8 @@
       <c r="I61" s="41"/>
       <c r="J61" s="42"/>
     </row>
-    <row r="63" spans="2:10" ht="16" thickBot="1"/>
-    <row r="64" spans="2:10">
+    <row r="63" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>60</v>
       </c>
@@ -18545,7 +20032,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="43"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
@@ -18556,7 +20043,7 @@
       <c r="I65" s="39"/>
       <c r="J65" s="40"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="43"/>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
@@ -18567,7 +20054,7 @@
       <c r="I66" s="39"/>
       <c r="J66" s="40"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="43"/>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
@@ -18578,7 +20065,7 @@
       <c r="I67" s="39"/>
       <c r="J67" s="40"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="43"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
@@ -18589,7 +20076,7 @@
       <c r="I68" s="39"/>
       <c r="J68" s="40"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="43"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
@@ -18600,7 +20087,7 @@
       <c r="I69" s="39"/>
       <c r="J69" s="40"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="43"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
@@ -18611,7 +20098,7 @@
       <c r="I70" s="39"/>
       <c r="J70" s="40"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="43"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
@@ -18622,7 +20109,7 @@
       <c r="I71" s="39"/>
       <c r="J71" s="40"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="43"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -18633,7 +20120,7 @@
       <c r="I72" s="39"/>
       <c r="J72" s="40"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="43"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -18644,7 +20131,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="40"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="43"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -18655,7 +20142,7 @@
       <c r="I74" s="39"/>
       <c r="J74" s="40"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="43"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -18666,7 +20153,7 @@
       <c r="I75" s="39"/>
       <c r="J75" s="40"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="43"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
@@ -18677,7 +20164,7 @@
       <c r="I76" s="39"/>
       <c r="J76" s="40"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="43"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -18688,7 +20175,7 @@
       <c r="I77" s="39"/>
       <c r="J77" s="40"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="43"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
@@ -18699,7 +20186,7 @@
       <c r="I78" s="39"/>
       <c r="J78" s="40"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="43"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
@@ -18710,7 +20197,7 @@
       <c r="I79" s="39"/>
       <c r="J79" s="40"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="43"/>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
@@ -18721,7 +20208,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="40"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="43"/>
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
@@ -18732,7 +20219,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="40"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="43"/>
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
@@ -18743,7 +20230,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="40"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="43"/>
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
@@ -18754,7 +20241,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="40"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="43"/>
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
@@ -18765,7 +20252,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="43"/>
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
@@ -18776,7 +20263,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="2:10" ht="16" thickBot="1">
+    <row r="86" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="45"/>
       <c r="C86" s="41"/>
       <c r="D86" s="41"/>
@@ -18787,8 +20274,8 @@
       <c r="I86" s="41"/>
       <c r="J86" s="42"/>
     </row>
-    <row r="88" spans="2:10" ht="16" thickBot="1"/>
-    <row r="89" spans="2:10">
+    <row r="88" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>61</v>
       </c>
@@ -18801,7 +20288,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="43"/>
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
@@ -18812,7 +20299,7 @@
       <c r="I90" s="39"/>
       <c r="J90" s="40"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="43"/>
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
@@ -18823,7 +20310,7 @@
       <c r="I91" s="39"/>
       <c r="J91" s="40"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="43"/>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
@@ -18834,7 +20321,7 @@
       <c r="I92" s="39"/>
       <c r="J92" s="40"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="43"/>
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
@@ -18845,7 +20332,7 @@
       <c r="I93" s="39"/>
       <c r="J93" s="40"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="43"/>
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
@@ -18856,7 +20343,7 @@
       <c r="I94" s="39"/>
       <c r="J94" s="40"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="43"/>
       <c r="C95" s="39"/>
       <c r="D95" s="39"/>
@@ -18867,7 +20354,7 @@
       <c r="I95" s="39"/>
       <c r="J95" s="40"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="43"/>
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
@@ -18878,7 +20365,7 @@
       <c r="I96" s="39"/>
       <c r="J96" s="40"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="43"/>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
@@ -18889,7 +20376,7 @@
       <c r="I97" s="39"/>
       <c r="J97" s="40"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="43"/>
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
@@ -18900,7 +20387,7 @@
       <c r="I98" s="39"/>
       <c r="J98" s="40"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="43"/>
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
@@ -18911,7 +20398,7 @@
       <c r="I99" s="39"/>
       <c r="J99" s="40"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
@@ -18922,7 +20409,7 @@
       <c r="I100" s="39"/>
       <c r="J100" s="40"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="43"/>
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
@@ -18933,7 +20420,7 @@
       <c r="I101" s="39"/>
       <c r="J101" s="40"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="43"/>
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
@@ -18944,7 +20431,7 @@
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="43"/>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
@@ -18955,7 +20442,7 @@
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="43"/>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
@@ -18966,7 +20453,7 @@
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="43"/>
       <c r="C105" s="39"/>
       <c r="D105" s="39"/>
@@ -18977,7 +20464,7 @@
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="43"/>
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
@@ -18988,7 +20475,7 @@
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="43"/>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
@@ -18999,7 +20486,7 @@
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="43"/>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
@@ -19010,7 +20497,7 @@
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="43"/>
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
@@ -19021,7 +20508,7 @@
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="43"/>
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
@@ -19032,7 +20519,7 @@
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="2:10" ht="16" thickBot="1">
+    <row r="111" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="45"/>
       <c r="C111" s="41"/>
       <c r="D111" s="41"/>
@@ -19043,8 +20530,8 @@
       <c r="I111" s="41"/>
       <c r="J111" s="42"/>
     </row>
-    <row r="113" spans="2:10" ht="16" thickBot="1"/>
-    <row r="114" spans="2:10">
+    <row r="113" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>104</v>
       </c>
@@ -19057,8 +20544,8 @@
       <c r="I114" s="6"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="43"/>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="128"/>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -19066,10 +20553,10 @@
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
       <c r="I115" s="39"/>
-      <c r="J115" s="40"/>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="43"/>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="128"/>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -19077,10 +20564,10 @@
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
       <c r="I116" s="39"/>
-      <c r="J116" s="40"/>
-    </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="43"/>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="128"/>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -19088,10 +20575,10 @@
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
       <c r="I117" s="39"/>
-      <c r="J117" s="40"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="43"/>
+      <c r="J117" s="39"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="128"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -19099,10 +20586,10 @@
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
       <c r="I118" s="39"/>
-      <c r="J118" s="40"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="43"/>
+      <c r="J118" s="39"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="128"/>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -19110,10 +20597,10 @@
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
       <c r="I119" s="39"/>
-      <c r="J119" s="40"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="43"/>
+      <c r="J119" s="39"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="128"/>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -19121,10 +20608,10 @@
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
       <c r="I120" s="39"/>
-      <c r="J120" s="40"/>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="43"/>
+      <c r="J120" s="39"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="128"/>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -19132,10 +20619,10 @@
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
       <c r="I121" s="39"/>
-      <c r="J121" s="40"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="43"/>
+      <c r="J121" s="39"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="128"/>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -19143,10 +20630,10 @@
       <c r="G122" s="39"/>
       <c r="H122" s="39"/>
       <c r="I122" s="39"/>
-      <c r="J122" s="40"/>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="43"/>
+      <c r="J122" s="39"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="128"/>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -19154,10 +20641,10 @@
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
       <c r="I123" s="39"/>
-      <c r="J123" s="40"/>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="43"/>
+      <c r="J123" s="39"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="128"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -19165,10 +20652,10 @@
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
       <c r="I124" s="39"/>
-      <c r="J124" s="40"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="43"/>
+      <c r="J124" s="39"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="128"/>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -19176,10 +20663,10 @@
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
       <c r="I125" s="39"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="43"/>
+      <c r="J125" s="39"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="128"/>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
@@ -19187,10 +20674,10 @@
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
       <c r="I126" s="39"/>
-      <c r="J126" s="40"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="43"/>
+      <c r="J126" s="39"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="128"/>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
@@ -19198,10 +20685,10 @@
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
       <c r="I127" s="39"/>
-      <c r="J127" s="40"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="43"/>
+      <c r="J127" s="39"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="128"/>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -19209,10 +20696,10 @@
       <c r="G128" s="39"/>
       <c r="H128" s="39"/>
       <c r="I128" s="39"/>
-      <c r="J128" s="40"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="43"/>
+      <c r="J128" s="39"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="128"/>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
@@ -19220,10 +20707,10 @@
       <c r="G129" s="39"/>
       <c r="H129" s="39"/>
       <c r="I129" s="39"/>
-      <c r="J129" s="40"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="43"/>
+      <c r="J129" s="39"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="128"/>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
@@ -19231,10 +20718,10 @@
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
       <c r="I130" s="39"/>
-      <c r="J130" s="40"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="43"/>
+      <c r="J130" s="39"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="128"/>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -19242,10 +20729,10 @@
       <c r="G131" s="39"/>
       <c r="H131" s="39"/>
       <c r="I131" s="39"/>
-      <c r="J131" s="40"/>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="43"/>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="128"/>
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -19253,10 +20740,10 @@
       <c r="G132" s="39"/>
       <c r="H132" s="39"/>
       <c r="I132" s="39"/>
-      <c r="J132" s="40"/>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="43"/>
+      <c r="J132" s="39"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="128"/>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
       <c r="E133" s="39"/>
@@ -19264,10 +20751,10 @@
       <c r="G133" s="39"/>
       <c r="H133" s="39"/>
       <c r="I133" s="39"/>
-      <c r="J133" s="40"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="43"/>
+      <c r="J133" s="39"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="128"/>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
@@ -19275,10 +20762,10 @@
       <c r="G134" s="39"/>
       <c r="H134" s="39"/>
       <c r="I134" s="39"/>
-      <c r="J134" s="40"/>
-    </row>
-    <row r="135" spans="2:10">
-      <c r="B135" s="43"/>
+      <c r="J134" s="39"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="128"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
       <c r="E135" s="39"/>
@@ -19286,20 +20773,20 @@
       <c r="G135" s="39"/>
       <c r="H135" s="39"/>
       <c r="I135" s="39"/>
-      <c r="J135" s="40"/>
-    </row>
-    <row r="136" spans="2:10" ht="16" thickBot="1">
-      <c r="B136" s="45"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="42"/>
-    </row>
-    <row r="138" spans="2:10" s="44" customFormat="1"/>
+      <c r="J135" s="39"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="129"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
+    </row>
+    <row r="138" spans="2:10" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19313,7 +20800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19321,31 +20808,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="80"/>
-    <col min="18" max="22" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="15" width="7.7265625" customWidth="1"/>
+    <col min="16" max="16" width="2.7265625" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" style="80"/>
+    <col min="18" max="22" width="3.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16" thickBot="1"/>
-    <row r="4" spans="1:22">
+    <row r="3" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -19371,7 +20858,7 @@
       <c r="U4" s="105"/>
       <c r="V4" s="105"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -19388,7 +20875,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="21">
+    <row r="6" spans="1:22" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="103" t="s">
         <v>62</v>
@@ -19416,7 +20903,7 @@
       <c r="U6" s="88"/>
       <c r="V6" s="88"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -19439,16 +20926,16 @@
       <c r="U7" s="89"/>
       <c r="V7" s="89"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
       <c r="I8" s="9"/>
       <c r="J8" s="93" t="s">
         <v>64</v>
@@ -19486,14 +20973,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -19508,7 +20995,7 @@
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -19535,7 +21022,7 @@
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
     </row>
-    <row r="11" spans="1:22" ht="18" thickBot="1">
+    <row r="11" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="52" t="s">
         <v>68</v>
@@ -19590,7 +21077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="52" t="s">
         <v>70</v>
@@ -19643,7 +21130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17">
+    <row r="13" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="52" t="s">
         <v>72</v>
@@ -19696,7 +21183,7 @@
       </c>
       <c r="V13" s="70"/>
     </row>
-    <row r="14" spans="1:22" ht="17">
+    <row r="14" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
         <v>74</v>
@@ -19747,7 +21234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17">
+    <row r="15" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
         <v>76</v>
@@ -19798,7 +21285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17">
+    <row r="16" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
         <v>78</v>
@@ -19853,7 +21340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="17">
+    <row r="17" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
         <v>80</v>
@@ -19906,7 +21393,7 @@
       <c r="U17" s="51"/>
       <c r="V17" s="70"/>
     </row>
-    <row r="18" spans="2:22" ht="17">
+    <row r="18" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
         <v>82</v>
@@ -19955,7 +21442,7 @@
       <c r="U18" s="51"/>
       <c r="V18" s="70"/>
     </row>
-    <row r="19" spans="2:22" ht="17">
+    <row r="19" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
         <v>84</v>
@@ -20010,7 +21497,7 @@
       </c>
       <c r="V19" s="70"/>
     </row>
-    <row r="20" spans="2:22" ht="17">
+    <row r="20" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
         <v>86</v>
@@ -20063,7 +21550,7 @@
       </c>
       <c r="V20" s="70"/>
     </row>
-    <row r="21" spans="2:22" ht="17">
+    <row r="21" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
         <v>88</v>
@@ -20120,7 +21607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="17">
+    <row r="22" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
         <v>90</v>
@@ -20173,7 +21660,7 @@
       <c r="U22" s="51"/>
       <c r="V22" s="70"/>
     </row>
-    <row r="23" spans="2:22" ht="17">
+    <row r="23" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
         <v>92</v>
@@ -20226,7 +21713,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="70"/>
     </row>
-    <row r="24" spans="2:22" ht="17">
+    <row r="24" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
         <v>94</v>
@@ -20279,7 +21766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="17">
+    <row r="25" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
         <v>96</v>
@@ -20332,7 +21819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="16" thickBot="1">
+    <row r="26" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -20350,7 +21837,7 @@
       <c r="P26" s="102"/>
       <c r="Q26" s="87"/>
     </row>
-    <row r="28" spans="2:22" s="14" customFormat="1">
+    <row r="28" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="104"/>
     </row>
   </sheetData>
@@ -20392,7 +21879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20400,25 +21887,25 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="14" width="8.7265625" customWidth="1"/>
+    <col min="15" max="15" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -20427,7 +21914,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
@@ -20435,7 +21922,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -20446,7 +21933,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -20457,7 +21944,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -20468,7 +21955,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -20479,7 +21966,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -20490,7 +21977,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -20508,14 +21995,14 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1">
+    <row r="14" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>127</v>
       </c>
@@ -20533,7 +22020,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -20549,7 +22036,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="2:15" ht="21">
+    <row r="17" spans="2:15" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="15" t="s">
         <v>13</v>
@@ -20571,7 +22058,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20587,7 +22074,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -20603,7 +22090,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20619,7 +22106,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20635,7 +22122,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -20651,7 +22138,7 @@
       <c r="N22" s="9"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -20667,7 +22154,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -20683,7 +22170,7 @@
       <c r="N24" s="9"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -20699,7 +22186,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -20715,7 +22202,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -20731,7 +22218,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -20747,7 +22234,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -20763,7 +22250,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -20779,7 +22266,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="2:15" ht="16" thickBot="1">
+    <row r="31" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -20795,9 +22282,9 @@
       <c r="N31" s="12"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="33" s="14" customFormat="1"/>
+    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="C5:D9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:D9">
     <sortCondition descending="1" ref="D5"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
